--- a/TCC EXCEL FILES/TCC 2012.xlsx
+++ b/TCC EXCEL FILES/TCC 2012.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DED44-F0BF-46DD-B74E-CEEA2CD3A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A9215-6AE1-4928-B5E3-671680AC4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1127">
   <si>
     <t>Judges Names</t>
   </si>
@@ -3398,6 +3398,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31086/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -3774,15 +3777,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:N327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J322" sqref="J322"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3820,10 +3823,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3860,11 +3866,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3901,11 +3910,14 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3942,11 +3954,14 @@
       <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3983,11 +3998,14 @@
       <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4024,11 +4042,14 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4065,11 +4086,14 @@
       <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -4106,11 +4130,14 @@
       <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4147,11 +4174,14 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -4188,11 +4218,14 @@
       <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4229,11 +4262,14 @@
       <c r="L11" t="s">
         <v>38</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4270,11 +4306,14 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -4311,11 +4350,14 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4352,11 +4394,14 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -4393,11 +4438,14 @@
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4434,11 +4482,14 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -4475,11 +4526,14 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4516,11 +4570,14 @@
       <c r="L18" t="s">
         <v>38</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4557,11 +4614,14 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -4598,11 +4658,14 @@
       <c r="L20" t="s">
         <v>38</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -4639,11 +4702,14 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -4680,11 +4746,14 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -4721,11 +4790,14 @@
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -4762,11 +4834,14 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4803,11 +4878,14 @@
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4844,11 +4922,14 @@
       <c r="L26" t="s">
         <v>38</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4885,11 +4966,14 @@
       <c r="L27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -4926,11 +5010,14 @@
       <c r="L28" t="s">
         <v>38</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -4967,11 +5054,14 @@
       <c r="L29" t="s">
         <v>38</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -5008,11 +5098,14 @@
       <c r="L30" t="s">
         <v>23</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -5049,11 +5142,14 @@
       <c r="L31" t="s">
         <v>38</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -5090,11 +5186,14 @@
       <c r="L32" t="s">
         <v>38</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5131,11 +5230,14 @@
       <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -5172,11 +5274,14 @@
       <c r="L34" t="s">
         <v>23</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -5213,11 +5318,14 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -5254,11 +5362,14 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -5295,11 +5406,14 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -5336,11 +5450,14 @@
       <c r="L38" t="s">
         <v>38</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -5377,11 +5494,14 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -5418,11 +5538,14 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -5459,11 +5582,14 @@
       <c r="L41" t="s">
         <v>198</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5500,11 +5626,14 @@
       <c r="L42" t="s">
         <v>38</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -5541,11 +5670,14 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5582,11 +5714,14 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5623,11 +5758,14 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -5664,11 +5802,14 @@
       <c r="L46" t="s">
         <v>38</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -5705,11 +5846,14 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -5746,11 +5890,14 @@
       <c r="L48" t="s">
         <v>38</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -5787,11 +5934,14 @@
       <c r="L49" t="s">
         <v>38</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -5828,11 +5978,14 @@
       <c r="L50" t="s">
         <v>23</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5869,11 +6022,14 @@
       <c r="L51" t="s">
         <v>23</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5910,11 +6066,14 @@
       <c r="L52" t="s">
         <v>23</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5951,11 +6110,14 @@
       <c r="L53" t="s">
         <v>23</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5992,11 +6154,14 @@
       <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -6033,11 +6198,14 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -6074,11 +6242,14 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -6115,11 +6286,14 @@
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -6156,11 +6330,14 @@
       <c r="L58" t="s">
         <v>38</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -6197,11 +6374,14 @@
       <c r="L59" t="s">
         <v>38</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6238,11 +6418,14 @@
       <c r="L60" t="s">
         <v>38</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -6279,11 +6462,14 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -6320,11 +6506,14 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -6361,11 +6550,14 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6402,11 +6594,14 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>284</v>
       </c>
@@ -6443,11 +6638,14 @@
       <c r="L65" t="s">
         <v>38</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -6484,11 +6682,14 @@
       <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -6525,11 +6726,14 @@
       <c r="L67" t="s">
         <v>38</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -6566,11 +6770,14 @@
       <c r="L68" t="s">
         <v>23</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -6607,11 +6814,14 @@
       <c r="L69" t="s">
         <v>23</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -6648,11 +6858,14 @@
       <c r="L70" t="s">
         <v>23</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -6689,11 +6902,14 @@
       <c r="L71" t="s">
         <v>23</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -6730,11 +6946,14 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>321</v>
       </c>
@@ -6771,11 +6990,14 @@
       <c r="L73" t="s">
         <v>23</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -6812,11 +7034,14 @@
       <c r="L74" t="s">
         <v>23</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -6853,11 +7078,14 @@
       <c r="L75" t="s">
         <v>23</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -6894,11 +7122,14 @@
       <c r="L76" t="s">
         <v>23</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -6935,11 +7166,14 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -6976,11 +7210,14 @@
       <c r="L78" t="s">
         <v>23</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -7017,11 +7254,14 @@
       <c r="L79" t="s">
         <v>23</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -7058,11 +7298,14 @@
       <c r="L80" t="s">
         <v>23</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -7099,11 +7342,14 @@
       <c r="L81" t="s">
         <v>23</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -7140,11 +7386,14 @@
       <c r="L82" t="s">
         <v>23</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -7181,11 +7430,14 @@
       <c r="L83" t="s">
         <v>23</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -7222,11 +7474,14 @@
       <c r="L84" t="s">
         <v>23</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -7263,11 +7518,14 @@
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -7304,11 +7562,14 @@
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -7345,11 +7606,14 @@
       <c r="L87" t="s">
         <v>38</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -7386,11 +7650,14 @@
       <c r="L88" t="s">
         <v>23</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -7427,11 +7694,14 @@
       <c r="L89" t="s">
         <v>38</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -7468,11 +7738,14 @@
       <c r="L90" t="s">
         <v>38</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -7509,11 +7782,14 @@
       <c r="L91" t="s">
         <v>23</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -7550,11 +7826,14 @@
       <c r="L92" t="s">
         <v>23</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -7591,11 +7870,14 @@
       <c r="L93" t="s">
         <v>23</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -7632,11 +7914,14 @@
       <c r="L94" t="s">
         <v>23</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -7673,11 +7958,14 @@
       <c r="L95" t="s">
         <v>23</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -7714,11 +8002,14 @@
       <c r="L96" t="s">
         <v>38</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -7755,11 +8046,14 @@
       <c r="L97" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -7796,11 +8090,14 @@
       <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>275</v>
       </c>
@@ -7837,11 +8134,14 @@
       <c r="L99" t="s">
         <v>23</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -7878,11 +8178,14 @@
       <c r="L100" t="s">
         <v>38</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -7919,11 +8222,14 @@
       <c r="L101" t="s">
         <v>23</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>421</v>
       </c>
@@ -7960,11 +8266,14 @@
       <c r="L102" t="s">
         <v>23</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>67</v>
       </c>
@@ -8001,11 +8310,14 @@
       <c r="L103" t="s">
         <v>38</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -8042,11 +8354,14 @@
       <c r="L104" t="s">
         <v>38</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -8083,11 +8398,14 @@
       <c r="L105" t="s">
         <v>38</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>56</v>
       </c>
@@ -8124,11 +8442,14 @@
       <c r="L106" t="s">
         <v>23</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>257</v>
       </c>
@@ -8165,11 +8486,14 @@
       <c r="L107" t="s">
         <v>38</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -8206,11 +8530,14 @@
       <c r="L108" t="s">
         <v>23</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -8247,11 +8574,14 @@
       <c r="L109" t="s">
         <v>38</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>449</v>
       </c>
@@ -8288,11 +8618,14 @@
       <c r="L110" t="s">
         <v>23</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -8329,11 +8662,14 @@
       <c r="L111" t="s">
         <v>38</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -8370,11 +8706,14 @@
       <c r="L112" t="s">
         <v>23</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -8411,11 +8750,14 @@
       <c r="L113" t="s">
         <v>38</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>466</v>
       </c>
@@ -8452,11 +8794,14 @@
       <c r="L114" t="s">
         <v>38</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>392</v>
       </c>
@@ -8493,11 +8838,14 @@
       <c r="L115" t="s">
         <v>23</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>473</v>
       </c>
@@ -8534,11 +8882,14 @@
       <c r="L116" t="s">
         <v>23</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -8575,11 +8926,14 @@
       <c r="L117" t="s">
         <v>38</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -8616,11 +8970,14 @@
       <c r="L118" t="s">
         <v>38</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -8657,11 +9014,14 @@
       <c r="L119" t="s">
         <v>38</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>487</v>
       </c>
@@ -8698,11 +9058,14 @@
       <c r="L120" t="s">
         <v>38</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -8739,11 +9102,14 @@
       <c r="L121" t="s">
         <v>23</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -8780,11 +9146,14 @@
       <c r="L122" t="s">
         <v>23</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>200</v>
       </c>
@@ -8821,11 +9190,14 @@
       <c r="L123" t="s">
         <v>38</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -8862,11 +9234,14 @@
       <c r="L124" t="s">
         <v>23</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -8903,11 +9278,14 @@
       <c r="L125" t="s">
         <v>23</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -8944,11 +9322,14 @@
       <c r="L126" t="s">
         <v>23</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -8985,11 +9366,14 @@
       <c r="L127" t="s">
         <v>38</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>275</v>
       </c>
@@ -9026,11 +9410,14 @@
       <c r="L128" t="s">
         <v>23</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -9067,11 +9454,14 @@
       <c r="L129" t="s">
         <v>38</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -9108,11 +9498,14 @@
       <c r="L130" t="s">
         <v>23</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>466</v>
       </c>
@@ -9149,11 +9542,14 @@
       <c r="L131" t="s">
         <v>38</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -9190,11 +9586,14 @@
       <c r="L132" t="s">
         <v>23</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>56</v>
       </c>
@@ -9231,11 +9630,14 @@
       <c r="L133" t="s">
         <v>23</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -9272,11 +9674,14 @@
       <c r="L134" t="s">
         <v>38</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>223</v>
       </c>
@@ -9313,11 +9718,14 @@
       <c r="L135" t="s">
         <v>38</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>56</v>
       </c>
@@ -9354,11 +9762,14 @@
       <c r="L136" t="s">
         <v>23</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -9395,11 +9806,14 @@
       <c r="L137" t="s">
         <v>38</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -9436,11 +9850,14 @@
       <c r="L138" t="s">
         <v>23</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -9477,11 +9894,14 @@
       <c r="L139" t="s">
         <v>23</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -9518,11 +9938,14 @@
       <c r="L140" t="s">
         <v>23</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -9559,11 +9982,14 @@
       <c r="L141" t="s">
         <v>23</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>561</v>
       </c>
@@ -9600,11 +10026,14 @@
       <c r="L142" t="s">
         <v>23</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -9641,11 +10070,14 @@
       <c r="L143" t="s">
         <v>23</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -9682,11 +10114,14 @@
       <c r="L144" t="s">
         <v>38</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -9723,11 +10158,14 @@
       <c r="L145" t="s">
         <v>38</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -9764,11 +10202,14 @@
       <c r="L146" t="s">
         <v>38</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>466</v>
       </c>
@@ -9805,11 +10246,14 @@
       <c r="L147" t="s">
         <v>38</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>138</v>
       </c>
@@ -9846,11 +10290,14 @@
       <c r="L148" t="s">
         <v>23</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>101</v>
       </c>
@@ -9887,11 +10334,14 @@
       <c r="L149" t="s">
         <v>23</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>223</v>
       </c>
@@ -9928,11 +10378,14 @@
       <c r="L150" t="s">
         <v>38</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -9969,11 +10422,14 @@
       <c r="L151" t="s">
         <v>23</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>594</v>
       </c>
@@ -10010,11 +10466,14 @@
       <c r="L152" t="s">
         <v>23</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>598</v>
       </c>
@@ -10051,11 +10510,14 @@
       <c r="L153" t="s">
         <v>38</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -10092,11 +10554,14 @@
       <c r="L154" t="s">
         <v>23</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>115</v>
       </c>
@@ -10133,11 +10598,14 @@
       <c r="L155" t="s">
         <v>38</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>606</v>
       </c>
@@ -10174,11 +10642,14 @@
       <c r="L156" t="s">
         <v>38</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>606</v>
       </c>
@@ -10215,11 +10686,14 @@
       <c r="L157" t="s">
         <v>38</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>606</v>
       </c>
@@ -10256,11 +10730,14 @@
       <c r="L158" t="s">
         <v>38</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>138</v>
       </c>
@@ -10297,11 +10774,14 @@
       <c r="L159" t="s">
         <v>23</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>621</v>
       </c>
@@ -10338,11 +10818,14 @@
       <c r="L160" t="s">
         <v>23</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -10379,11 +10862,14 @@
       <c r="L161" t="s">
         <v>23</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -10420,11 +10906,14 @@
       <c r="L162" t="s">
         <v>38</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>25</v>
       </c>
@@ -10461,11 +10950,14 @@
       <c r="L163" t="s">
         <v>23</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -10502,11 +10994,14 @@
       <c r="L164" t="s">
         <v>23</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>115</v>
       </c>
@@ -10543,11 +11038,14 @@
       <c r="L165" t="s">
         <v>38</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -10584,11 +11082,14 @@
       <c r="L166" t="s">
         <v>38</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>81</v>
       </c>
@@ -10625,11 +11126,14 @@
       <c r="L167" t="s">
         <v>23</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>223</v>
       </c>
@@ -10666,11 +11170,14 @@
       <c r="L168" t="s">
         <v>38</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>138</v>
       </c>
@@ -10707,11 +11214,14 @@
       <c r="L169" t="s">
         <v>23</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -10748,11 +11258,14 @@
       <c r="L170" t="s">
         <v>23</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -10789,11 +11302,14 @@
       <c r="L171" t="s">
         <v>23</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -10830,11 +11346,14 @@
       <c r="L172" t="s">
         <v>23</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>392</v>
       </c>
@@ -10871,11 +11390,14 @@
       <c r="L173" t="s">
         <v>23</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -10912,11 +11434,14 @@
       <c r="L174" t="s">
         <v>23</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>473</v>
       </c>
@@ -10953,11 +11478,14 @@
       <c r="L175" t="s">
         <v>23</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -10994,11 +11522,14 @@
       <c r="L176" t="s">
         <v>23</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>392</v>
       </c>
@@ -11035,11 +11566,14 @@
       <c r="L177" t="s">
         <v>23</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>466</v>
       </c>
@@ -11076,11 +11610,14 @@
       <c r="L178" t="s">
         <v>38</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>487</v>
       </c>
@@ -11117,11 +11654,14 @@
       <c r="L179" t="s">
         <v>38</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -11158,11 +11698,14 @@
       <c r="L180" t="s">
         <v>38</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>487</v>
       </c>
@@ -11199,11 +11742,14 @@
       <c r="L181" t="s">
         <v>38</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -11240,11 +11786,14 @@
       <c r="L182" t="s">
         <v>38</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>138</v>
       </c>
@@ -11281,11 +11830,14 @@
       <c r="L183" t="s">
         <v>23</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -11322,11 +11874,14 @@
       <c r="L184" t="s">
         <v>23</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>115</v>
       </c>
@@ -11363,11 +11918,14 @@
       <c r="L185" t="s">
         <v>38</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>702</v>
       </c>
@@ -11404,11 +11962,14 @@
       <c r="L186" t="s">
         <v>23</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>466</v>
       </c>
@@ -11445,11 +12006,14 @@
       <c r="L187" t="s">
         <v>38</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>138</v>
       </c>
@@ -11486,11 +12050,14 @@
       <c r="L188" t="s">
         <v>23</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>115</v>
       </c>
@@ -11527,11 +12094,14 @@
       <c r="L189" t="s">
         <v>38</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -11568,11 +12138,14 @@
       <c r="L190" t="s">
         <v>38</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>304</v>
       </c>
@@ -11609,11 +12182,14 @@
       <c r="L191" t="s">
         <v>23</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -11650,11 +12226,14 @@
       <c r="L192" t="s">
         <v>38</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -11691,11 +12270,14 @@
       <c r="L193" t="s">
         <v>38</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>727</v>
       </c>
@@ -11732,11 +12314,14 @@
       <c r="L194" t="s">
         <v>23</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>421</v>
       </c>
@@ -11773,11 +12358,14 @@
       <c r="L195" t="s">
         <v>23</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -11814,11 +12402,14 @@
       <c r="L196" t="s">
         <v>23</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -11855,11 +12446,14 @@
       <c r="L197" t="s">
         <v>23</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -11896,11 +12490,14 @@
       <c r="L198" t="s">
         <v>23</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -11937,11 +12534,14 @@
       <c r="L199" t="s">
         <v>23</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -11978,11 +12578,14 @@
       <c r="L200" t="s">
         <v>23</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -12019,11 +12622,14 @@
       <c r="L201" t="s">
         <v>23</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -12060,11 +12666,14 @@
       <c r="L202" t="s">
         <v>23</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>56</v>
       </c>
@@ -12101,11 +12710,14 @@
       <c r="L203" t="s">
         <v>23</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>45</v>
       </c>
@@ -12142,11 +12754,14 @@
       <c r="L204" t="s">
         <v>23</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -12183,11 +12798,14 @@
       <c r="L205" t="s">
         <v>38</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>56</v>
       </c>
@@ -12224,11 +12842,14 @@
       <c r="L206" t="s">
         <v>23</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>392</v>
       </c>
@@ -12265,11 +12886,14 @@
       <c r="L207" t="s">
         <v>23</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>771</v>
       </c>
@@ -12306,11 +12930,14 @@
       <c r="L208" t="s">
         <v>23</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>56</v>
       </c>
@@ -12347,11 +12974,14 @@
       <c r="L209" t="s">
         <v>23</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -12388,11 +13018,14 @@
       <c r="L210" t="s">
         <v>38</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -12429,11 +13062,14 @@
       <c r="L211" t="s">
         <v>38</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>138</v>
       </c>
@@ -12470,11 +13106,14 @@
       <c r="L212" t="s">
         <v>23</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>56</v>
       </c>
@@ -12511,11 +13150,14 @@
       <c r="L213" t="s">
         <v>23</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>138</v>
       </c>
@@ -12552,11 +13194,14 @@
       <c r="L214" t="s">
         <v>23</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -12593,11 +13238,14 @@
       <c r="L215" t="s">
         <v>23</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>56</v>
       </c>
@@ -12634,11 +13282,14 @@
       <c r="L216" t="s">
         <v>23</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>797</v>
       </c>
@@ -12675,11 +13326,14 @@
       <c r="L217" t="s">
         <v>23</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>801</v>
       </c>
@@ -12716,11 +13370,14 @@
       <c r="L218" t="s">
         <v>23</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>56</v>
       </c>
@@ -12757,11 +13414,14 @@
       <c r="L219" t="s">
         <v>23</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>807</v>
       </c>
@@ -12798,11 +13458,14 @@
       <c r="L220" t="s">
         <v>23</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>175</v>
       </c>
@@ -12839,11 +13502,14 @@
       <c r="L221" t="s">
         <v>23</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>175</v>
       </c>
@@ -12880,11 +13546,14 @@
       <c r="L222" t="s">
         <v>23</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>392</v>
       </c>
@@ -12921,11 +13590,14 @@
       <c r="L223" t="s">
         <v>23</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -12962,11 +13634,14 @@
       <c r="L224" t="s">
         <v>38</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>175</v>
       </c>
@@ -13003,11 +13678,14 @@
       <c r="L225" t="s">
         <v>23</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -13044,11 +13722,14 @@
       <c r="L226" t="s">
         <v>38</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>392</v>
       </c>
@@ -13085,11 +13766,14 @@
       <c r="L227" t="s">
         <v>23</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>275</v>
       </c>
@@ -13126,11 +13810,14 @@
       <c r="L228" t="s">
         <v>23</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>223</v>
       </c>
@@ -13167,11 +13854,14 @@
       <c r="L229" t="s">
         <v>38</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>321</v>
       </c>
@@ -13208,11 +13898,14 @@
       <c r="L230" t="s">
         <v>23</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -13249,11 +13942,14 @@
       <c r="L231" t="s">
         <v>23</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>81</v>
       </c>
@@ -13290,11 +13986,14 @@
       <c r="L232" t="s">
         <v>23</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>275</v>
       </c>
@@ -13331,11 +14030,14 @@
       <c r="L233" t="s">
         <v>23</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>115</v>
       </c>
@@ -13372,11 +14074,14 @@
       <c r="L234" t="s">
         <v>38</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>606</v>
       </c>
@@ -13413,11 +14118,14 @@
       <c r="L235" t="s">
         <v>23</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>852</v>
       </c>
@@ -13454,11 +14162,14 @@
       <c r="L236" t="s">
         <v>23</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>421</v>
       </c>
@@ -13495,11 +14206,14 @@
       <c r="L237" t="s">
         <v>23</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>421</v>
       </c>
@@ -13536,11 +14250,14 @@
       <c r="L238" t="s">
         <v>23</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -13577,11 +14294,14 @@
       <c r="L239" t="s">
         <v>23</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>223</v>
       </c>
@@ -13618,11 +14338,14 @@
       <c r="L240" t="s">
         <v>38</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>61</v>
       </c>
@@ -13659,11 +14382,14 @@
       <c r="L241" t="s">
         <v>23</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>67</v>
       </c>
@@ -13700,11 +14426,14 @@
       <c r="L242" t="s">
         <v>38</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -13741,11 +14470,14 @@
       <c r="L243" t="s">
         <v>23</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -13782,11 +14514,14 @@
       <c r="L244" t="s">
         <v>38</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>880</v>
       </c>
@@ -13823,11 +14558,14 @@
       <c r="L245" t="s">
         <v>23</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>81</v>
       </c>
@@ -13864,11 +14602,14 @@
       <c r="L246" t="s">
         <v>23</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>392</v>
       </c>
@@ -13905,11 +14646,14 @@
       <c r="L247" t="s">
         <v>23</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -13946,11 +14690,14 @@
       <c r="L248" t="s">
         <v>38</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>101</v>
       </c>
@@ -13987,11 +14734,14 @@
       <c r="L249" t="s">
         <v>23</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>81</v>
       </c>
@@ -14028,11 +14778,14 @@
       <c r="L250" t="s">
         <v>23</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -14069,11 +14822,14 @@
       <c r="L251" t="s">
         <v>38</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>797</v>
       </c>
@@ -14110,11 +14866,14 @@
       <c r="L252" t="s">
         <v>23</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>421</v>
       </c>
@@ -14151,11 +14910,14 @@
       <c r="L253" t="s">
         <v>23</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>771</v>
       </c>
@@ -14192,11 +14954,14 @@
       <c r="L254" t="s">
         <v>23</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>115</v>
       </c>
@@ -14233,11 +14998,14 @@
       <c r="L255" t="s">
         <v>38</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>200</v>
       </c>
@@ -14274,11 +15042,14 @@
       <c r="L256" t="s">
         <v>38</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>916</v>
       </c>
@@ -14315,11 +15086,14 @@
       <c r="L257" t="s">
         <v>23</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>25</v>
       </c>
@@ -14356,11 +15130,14 @@
       <c r="L258" t="s">
         <v>23</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>223</v>
       </c>
@@ -14397,11 +15174,14 @@
       <c r="L259" t="s">
         <v>38</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>284</v>
       </c>
@@ -14438,11 +15218,14 @@
       <c r="L260" t="s">
         <v>38</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -14479,11 +15262,14 @@
       <c r="L261" t="s">
         <v>23</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>200</v>
       </c>
@@ -14520,11 +15306,14 @@
       <c r="L262" t="s">
         <v>38</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -14561,11 +15350,14 @@
       <c r="L263" t="s">
         <v>23</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>81</v>
       </c>
@@ -14602,11 +15394,14 @@
       <c r="L264" t="s">
         <v>23</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>81</v>
       </c>
@@ -14643,11 +15438,14 @@
       <c r="L265" t="s">
         <v>23</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>944</v>
       </c>
@@ -14684,11 +15482,14 @@
       <c r="L266" t="s">
         <v>23</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>81</v>
       </c>
@@ -14725,11 +15526,14 @@
       <c r="L267" t="s">
         <v>23</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>115</v>
       </c>
@@ -14766,11 +15570,14 @@
       <c r="L268" t="s">
         <v>38</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>61</v>
       </c>
@@ -14807,11 +15614,14 @@
       <c r="L269" t="s">
         <v>23</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -14848,11 +15658,14 @@
       <c r="L270" t="s">
         <v>38</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -14889,11 +15702,14 @@
       <c r="L271" t="s">
         <v>38</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>101</v>
       </c>
@@ -14930,11 +15746,14 @@
       <c r="L272" t="s">
         <v>23</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>81</v>
       </c>
@@ -14971,11 +15790,14 @@
       <c r="L273" t="s">
         <v>23</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -15012,11 +15834,14 @@
       <c r="L274" t="s">
         <v>23</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>138</v>
       </c>
@@ -15053,11 +15878,14 @@
       <c r="L275" t="s">
         <v>23</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -15094,11 +15922,14 @@
       <c r="L276" t="s">
         <v>38</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>978</v>
       </c>
@@ -15135,11 +15966,14 @@
       <c r="L277" t="s">
         <v>23</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>138</v>
       </c>
@@ -15176,11 +16010,14 @@
       <c r="L278" t="s">
         <v>23</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>101</v>
       </c>
@@ -15217,11 +16054,14 @@
       <c r="L279" t="s">
         <v>23</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>56</v>
       </c>
@@ -15258,11 +16098,14 @@
       <c r="L280" t="s">
         <v>23</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -15299,11 +16142,14 @@
       <c r="L281" t="s">
         <v>38</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -15340,11 +16186,14 @@
       <c r="L282" t="s">
         <v>38</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -15381,11 +16230,14 @@
       <c r="L283" t="s">
         <v>38</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -15422,11 +16274,14 @@
       <c r="L284" t="s">
         <v>38</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -15463,11 +16318,14 @@
       <c r="L285" t="s">
         <v>38</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>200</v>
       </c>
@@ -15504,11 +16362,14 @@
       <c r="L286" t="s">
         <v>38</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>138</v>
       </c>
@@ -15545,11 +16406,14 @@
       <c r="L287" t="s">
         <v>23</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>200</v>
       </c>
@@ -15586,11 +16450,14 @@
       <c r="L288" t="s">
         <v>38</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>606</v>
       </c>
@@ -15627,11 +16494,14 @@
       <c r="L289" t="s">
         <v>23</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>115</v>
       </c>
@@ -15668,11 +16538,14 @@
       <c r="L290" t="s">
         <v>38</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>25</v>
       </c>
@@ -15709,11 +16582,14 @@
       <c r="L291" t="s">
         <v>23</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>223</v>
       </c>
@@ -15750,11 +16626,14 @@
       <c r="L292" t="s">
         <v>38</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1023</v>
       </c>
@@ -15791,11 +16670,14 @@
       <c r="L293" t="s">
         <v>23</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -15832,11 +16714,14 @@
       <c r="L294" t="s">
         <v>23</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>101</v>
       </c>
@@ -15873,11 +16758,14 @@
       <c r="L295" t="s">
         <v>23</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>200</v>
       </c>
@@ -15914,11 +16802,14 @@
       <c r="L296" t="s">
         <v>38</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>200</v>
       </c>
@@ -15955,11 +16846,14 @@
       <c r="L297" t="s">
         <v>38</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>292</v>
       </c>
@@ -15996,11 +16890,14 @@
       <c r="L298" t="s">
         <v>38</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>101</v>
       </c>
@@ -16037,11 +16934,14 @@
       <c r="L299" t="s">
         <v>23</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>223</v>
       </c>
@@ -16078,11 +16978,14 @@
       <c r="L300" t="s">
         <v>38</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -16119,11 +17022,14 @@
       <c r="L301" t="s">
         <v>23</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -16160,11 +17066,14 @@
       <c r="L302" t="s">
         <v>38</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>56</v>
       </c>
@@ -16201,11 +17110,14 @@
       <c r="L303" t="s">
         <v>23</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>81</v>
       </c>
@@ -16242,11 +17154,14 @@
       <c r="L304" t="s">
         <v>23</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>81</v>
       </c>
@@ -16283,11 +17198,14 @@
       <c r="L305" t="s">
         <v>23</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1064</v>
       </c>
@@ -16324,11 +17242,14 @@
       <c r="L306" t="s">
         <v>23</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>32</v>
       </c>
@@ -16365,11 +17286,14 @@
       <c r="L307" t="s">
         <v>38</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -16406,11 +17330,14 @@
       <c r="L308" t="s">
         <v>23</v>
       </c>
-      <c r="M308" t="s">
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>392</v>
       </c>
@@ -16447,11 +17374,14 @@
       <c r="L309" t="s">
         <v>23</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>25</v>
       </c>
@@ -16488,11 +17418,14 @@
       <c r="L310" t="s">
         <v>198</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>32</v>
       </c>
@@ -16529,11 +17462,14 @@
       <c r="L311" t="s">
         <v>38</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -16570,11 +17506,14 @@
       <c r="L312" t="s">
         <v>23</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -16611,11 +17550,14 @@
       <c r="L313" t="s">
         <v>38</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>138</v>
       </c>
@@ -16652,11 +17594,14 @@
       <c r="L314" t="s">
         <v>23</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>32</v>
       </c>
@@ -16693,11 +17638,14 @@
       <c r="L315" t="s">
         <v>38</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -16734,11 +17682,14 @@
       <c r="L316" t="s">
         <v>23</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -16775,11 +17726,14 @@
       <c r="L317" t="s">
         <v>23</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>25</v>
       </c>
@@ -16816,11 +17770,14 @@
       <c r="L318" t="s">
         <v>23</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>223</v>
       </c>
@@ -16857,11 +17814,14 @@
       <c r="L319" t="s">
         <v>38</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>223</v>
       </c>
@@ -16898,11 +17858,14 @@
       <c r="L320" t="s">
         <v>38</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>392</v>
       </c>
@@ -16939,11 +17902,14 @@
       <c r="L321" t="s">
         <v>23</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>606</v>
       </c>
@@ -16980,11 +17946,14 @@
       <c r="L322" t="s">
         <v>23</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>138</v>
       </c>
@@ -17021,11 +17990,14 @@
       <c r="L323" t="s">
         <v>23</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -17062,11 +18034,14 @@
       <c r="L324" t="s">
         <v>38</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>487</v>
       </c>
@@ -17103,11 +18078,14 @@
       <c r="L325" t="s">
         <v>38</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325">
+        <v>1</v>
+      </c>
+      <c r="N325" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>200</v>
       </c>
@@ -17144,11 +18122,14 @@
       <c r="L326" t="s">
         <v>38</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>421</v>
       </c>
@@ -17185,14 +18166,17 @@
       <c r="L327" t="s">
         <v>23</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
         <v>1125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M327" numberStoredAsText="1"/>
+    <ignoredError sqref="N1:N327 A1:L327" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>